--- a/docs/mcode-r4/obf-RadiationFractionsDelivered-extension.xlsx
+++ b/docs/mcode-r4/obf-RadiationFractionsDelivered-extension.xlsx
@@ -137,7 +137,7 @@
     <t>RadiationFractionsDelivered</t>
   </si>
   <si>
-    <t>The total number of treatment sessions (fractions) administered during a course of radiation therapy therapy. A fraction is a portion of the total radiation dose, delivered as a series of treatments that make up the full course of radiotherapy. (source: LOINC)</t>
+    <t>Records the total number of treatment sessions (fractions) administered during the first course of therapy. Corresponds to LOINC 21950-2 'Number of radiation treatment' [sic].</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
